--- a/data/trans_orig/P32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8472</v>
+        <v>8488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23584</v>
+        <v>25084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05179509656068066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03017930100545926</v>
+        <v>0.03023588403327727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0840131402192955</v>
+        <v>0.08935721263206095</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5269</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11190</v>
+        <v>11968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02840561262857983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01032403216009814</v>
+        <v>0.01031025711965978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06032991808489657</v>
+        <v>0.0645276544058303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>19808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12600</v>
+        <v>12116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30412</v>
+        <v>30552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04248938291910435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02702794710958465</v>
+        <v>0.02598842475560858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06523602872607119</v>
+        <v>0.06553598373738598</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257129</v>
+        <v>255629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272241</v>
+        <v>272225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9482049034393193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9159868597807047</v>
+        <v>0.9106427873679375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9698206989945408</v>
+        <v>0.9697641159667225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -836,19 +836,19 @@
         <v>180209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174288</v>
+        <v>173510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>183563</v>
+        <v>183566</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9715943873714201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9396700819151029</v>
+        <v>0.9354723455941695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9896759678399019</v>
+        <v>0.9896897428803402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>459</v>
@@ -857,19 +857,19 @@
         <v>446383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435779</v>
+        <v>435639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>453591</v>
+        <v>454075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9575106170808957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347639712739289</v>
+        <v>0.9344640162626141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9729720528904153</v>
+        <v>0.9740115752443914</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8601</v>
+        <v>8493</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23616</v>
+        <v>24736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02992296197802358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01713829129981863</v>
+        <v>0.01692274646590028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04705447358855253</v>
+        <v>0.04928714481538984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9000</v>
+        <v>10521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01208846168957971</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04123428122097551</v>
+        <v>0.04820022696236695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1003,19 +1003,19 @@
         <v>17656</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10739</v>
+        <v>11133</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27678</v>
+        <v>28103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02451740666160688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01491246236570701</v>
+        <v>0.01545905212389192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03843309572332504</v>
+        <v>0.0390228511839448</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>486863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478265</v>
+        <v>477145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493280</v>
+        <v>493388</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9700770380219764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9529455264114474</v>
+        <v>0.9507128551846101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9828617087001812</v>
+        <v>0.9830772535340997</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -1053,7 +1053,7 @@
         <v>215637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209276</v>
+        <v>207755</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>218276</v>
@@ -1062,7 +1062,7 @@
         <v>0.9879115383104203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9587657187790255</v>
+        <v>0.9517997730376334</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>702501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692479</v>
+        <v>692054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709418</v>
+        <v>709024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9754825933383932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9615669042766749</v>
+        <v>0.9609771488160553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.985087537634293</v>
+        <v>0.9845409478761081</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1807</v>
+        <v>1761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11233</v>
+        <v>10622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01208081343452633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004496554222878704</v>
+        <v>0.004382201371481594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02795819650471917</v>
+        <v>0.02643697025938859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7509</v>
+        <v>6668</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009630222527336229</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03348308023090003</v>
+        <v>0.02972997385513431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>7014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2809</v>
+        <v>3130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13504</v>
+        <v>15134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01120295048623421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004487030528991924</v>
+        <v>0.004998943062087968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0215691850622397</v>
+        <v>0.02417293064772945</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>396936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390557</v>
+        <v>391168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399983</v>
+        <v>400029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9879191865654736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9720418034952807</v>
+        <v>0.9735630297406115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9955034457771212</v>
+        <v>0.9956177986285184</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1270,7 +1270,7 @@
         <v>222111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216762</v>
+        <v>217603</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>224271</v>
@@ -1279,7 +1279,7 @@
         <v>0.9903697774726637</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9665169197690998</v>
+        <v>0.9702700261448657</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>619047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612557</v>
+        <v>610927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623252</v>
+        <v>622931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9887970495137658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784308149377603</v>
+        <v>0.9758270693522706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955129694710081</v>
+        <v>0.995001056937912</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3718</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10150</v>
+        <v>10605</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01185942676133637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00341068869281094</v>
+        <v>0.003379430936430749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03237639489750409</v>
+        <v>0.03382727081159399</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6856</v>
+        <v>7558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01474902386285037</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04721645568094304</v>
+        <v>0.05204865260154357</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1437,19 +1437,19 @@
         <v>5859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13181</v>
+        <v>13072</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01277414202510183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004650931821960087</v>
+        <v>0.004683660153705615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02873595227189955</v>
+        <v>0.02849853156724589</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>309776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303344</v>
+        <v>302889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312425</v>
+        <v>312435</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9881405732386637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9676236051024961</v>
+        <v>0.966172729188406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965893113071891</v>
+        <v>0.9966205690635692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -1487,7 +1487,7 @@
         <v>143061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138347</v>
+        <v>137645</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>145203</v>
@@ -1496,7 +1496,7 @@
         <v>0.9852509761371496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9527835443190575</v>
+        <v>0.9479513473984563</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>452838</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>445516</v>
+        <v>445625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>456564</v>
+        <v>456549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9872258579748981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9712640477281005</v>
+        <v>0.9715014684327541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9953490681780399</v>
+        <v>0.9953163398462943</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5247</v>
+        <v>5198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18644</v>
+        <v>17264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05465085673157787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02913435234087893</v>
+        <v>0.02886416376066668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1035253086195184</v>
+        <v>0.09586394213386332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5575</v>
+        <v>5206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01365797430832648</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07390998167075025</v>
+        <v>0.06900628706474048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1654,19 +1654,19 @@
         <v>10872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5784</v>
+        <v>5434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18748</v>
+        <v>18942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04254909748582985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02263452522226243</v>
+        <v>0.02126483292791842</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.073371007437272</v>
+        <v>0.07413041811596012</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>170250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161448</v>
+        <v>162828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174845</v>
+        <v>174894</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9453491432684221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8964746913804826</v>
+        <v>0.9041360578661366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9708656476591215</v>
+        <v>0.9711358362393333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -1704,7 +1704,7 @@
         <v>74406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69861</v>
+        <v>70230</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>75436</v>
@@ -1713,7 +1713,7 @@
         <v>0.9863420256916735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9260900183292543</v>
+        <v>0.9309937129352596</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1725,19 +1725,19 @@
         <v>244655</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>236779</v>
+        <v>236585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249743</v>
+        <v>250093</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9574509025141702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9266289925627282</v>
+        <v>0.9258695818840398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9773654747777376</v>
+        <v>0.9787351670720815</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9749</v>
+        <v>9179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01934693564355229</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07510622062274133</v>
+        <v>0.07071445691526179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8338</v>
+        <v>9072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01577476382149702</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05237975602117705</v>
+        <v>0.05698905567120206</v>
       </c>
     </row>
     <row r="20">
@@ -1892,7 +1892,7 @@
         <v>127288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120050</v>
+        <v>120620</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>129799</v>
@@ -1901,7 +1901,7 @@
         <v>0.9806530643564477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9248937793772586</v>
+        <v>0.9292855430847387</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>156680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150853</v>
+        <v>150119</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>159191</v>
@@ -1935,7 +1935,7 @@
         <v>0.984225236178503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9476202439788231</v>
+        <v>0.943010944328798</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01376585255352029</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01122872022674021</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
     </row>
     <row r="23">
@@ -2093,7 +2093,7 @@
         <v>72128</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67991</v>
+        <v>68064</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>73135</v>
@@ -2102,7 +2102,7 @@
         <v>0.9862341474464797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9296659097990142</v>
+        <v>0.9306556596765312</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>88653</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84255</v>
+        <v>84135</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>89660</v>
@@ -2136,7 +2136,7 @@
         <v>0.9887712797732597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.93971585855823</v>
+        <v>0.9383768683928935</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2231,19 +2231,19 @@
         <v>51489</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02737474208489276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2252,19 +2252,19 @@
         <v>13239</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01479901423863817</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2273,19 +2273,19 @@
         <v>64728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02332139241572334</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>1829415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1815209</v>
+        <v>1813368</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1843133</v>
+        <v>1842048</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9726252579151072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9650726904819563</v>
+        <v>0.9640939298470127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9799184398567196</v>
+        <v>0.9793418839240392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>862</v>
@@ -2323,19 +2323,19 @@
         <v>881342</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>871505</v>
+        <v>871165</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>887885</v>
+        <v>887450</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9852009857613618</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9742044945803808</v>
+        <v>0.9738246895860075</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9925147052490745</v>
+        <v>0.9920290255533293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2658</v>
@@ -2344,19 +2344,19 @@
         <v>2710758</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2691944</v>
+        <v>2692810</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2724710</v>
+        <v>2726834</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9766786075842767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9699002209177086</v>
+        <v>0.9702120441637913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9817055435870615</v>
+        <v>0.9824709586351192</v>
       </c>
     </row>
     <row r="27">
@@ -2691,19 +2691,19 @@
         <v>30082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21247</v>
+        <v>20629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42393</v>
+        <v>41039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1067272555458989</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07538214434974441</v>
+        <v>0.07319010930104849</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1504038822578276</v>
+        <v>0.1456022989995225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2712,19 +2712,19 @@
         <v>5057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10903</v>
+        <v>10980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02740436976879712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01025824379715716</v>
+        <v>0.01027086842002766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0590910046614172</v>
+        <v>0.05950454355751179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -2733,19 +2733,19 @@
         <v>35139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25003</v>
+        <v>25107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47442</v>
+        <v>47367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07534401963756376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05361086028188204</v>
+        <v>0.05383414490532271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1017256299896066</v>
+        <v>0.1015648141115301</v>
       </c>
     </row>
     <row r="5">
@@ -2762,19 +2762,19 @@
         <v>251778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239467</v>
+        <v>240821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>260613</v>
+        <v>261231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8932727444541011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8495961177421725</v>
+        <v>0.8543977010004775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9246178556502554</v>
+        <v>0.9268098906989513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -2783,19 +2783,19 @@
         <v>179460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173614</v>
+        <v>173537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182624</v>
+        <v>182622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9725956302312029</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9409089953385815</v>
+        <v>0.9404954564424883</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9897417562028428</v>
+        <v>0.9897291315799723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>424</v>
@@ -2804,19 +2804,19 @@
         <v>431238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418935</v>
+        <v>419010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>441374</v>
+        <v>441270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9246559803624362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8982743700103935</v>
+        <v>0.89843518588847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.946389139718118</v>
+        <v>0.9461658550946773</v>
       </c>
     </row>
     <row r="6">
@@ -2908,19 +2908,19 @@
         <v>37324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26601</v>
+        <v>25161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50814</v>
+        <v>51320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07993378512520227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05697020329488077</v>
+        <v>0.05388444279305861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1088253926043914</v>
+        <v>0.109908995776658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2929,19 +2929,19 @@
         <v>8695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3692</v>
+        <v>3354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17620</v>
+        <v>18316</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04073762435534068</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01729710087491652</v>
+        <v>0.01571655314277332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08255279886203017</v>
+        <v>0.08581701956121797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -2950,19 +2950,19 @@
         <v>46019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33453</v>
+        <v>33420</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61995</v>
+        <v>61384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06763780713647236</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04916929416300446</v>
+        <v>0.04912024932177923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09111901744572273</v>
+        <v>0.09022178463400278</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>429612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>416122</v>
+        <v>415616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440335</v>
+        <v>441775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9200662148747978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8911746073956086</v>
+        <v>0.890091004223342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9430297967051192</v>
+        <v>0.9461155572069414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>195</v>
@@ -3000,19 +3000,19 @@
         <v>204740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195815</v>
+        <v>195119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>209743</v>
+        <v>210081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9592623756446593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9174472011379698</v>
+        <v>0.914182980438782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9827028991250835</v>
+        <v>0.9842834468572267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>614</v>
@@ -3021,19 +3021,19 @@
         <v>634351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>618375</v>
+        <v>618986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>646917</v>
+        <v>646950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9323621928635276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.908880982554277</v>
+        <v>0.9097782153659969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9508307058369955</v>
+        <v>0.9508797506782205</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>20484</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12922</v>
+        <v>12911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31326</v>
+        <v>30601</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04796507733306491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03025750810591264</v>
+        <v>0.0302316438894685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07335311712870929</v>
+        <v>0.07165575029649844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3146,19 +3146,19 @@
         <v>7953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3730</v>
+        <v>2989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18103</v>
+        <v>16615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0325459186907407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01526422847888212</v>
+        <v>0.0122334730771184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07408328598165106</v>
+        <v>0.06799478191353707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3167,19 +3167,19 @@
         <v>28437</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19611</v>
+        <v>18787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40462</v>
+        <v>40991</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04235331083930727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02920773566936014</v>
+        <v>0.02798020065471692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06026339237351747</v>
+        <v>0.06105044283952893</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>406575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>395733</v>
+        <v>396458</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414137</v>
+        <v>414148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9520349226669351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9266468828712906</v>
+        <v>0.9283442497035012</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9697424918940873</v>
+        <v>0.9697683561105312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3217,19 +3217,19 @@
         <v>236409</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226259</v>
+        <v>227747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240632</v>
+        <v>241373</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9674540813092593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9259167140183489</v>
+        <v>0.932005218086463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9847357715211179</v>
+        <v>0.9877665269228816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>606</v>
@@ -3238,19 +3238,19 @@
         <v>642985</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630960</v>
+        <v>630431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651811</v>
+        <v>652635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9576466891606927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9397366076264825</v>
+        <v>0.9389495571604711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9707922643306398</v>
+        <v>0.9720197993452832</v>
       </c>
     </row>
     <row r="12">
@@ -3342,19 +3342,19 @@
         <v>29316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19051</v>
+        <v>19566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41586</v>
+        <v>43844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07438524251517729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04834003437868061</v>
+        <v>0.04964523654348999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1055182353529576</v>
+        <v>0.1112477012978791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>29316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19243</v>
+        <v>19951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40918</v>
+        <v>43139</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04809054285598297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03156677503315897</v>
+        <v>0.0327276206134481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.067123219724189</v>
+        <v>0.07076674685438167</v>
       </c>
     </row>
     <row r="14">
@@ -3405,19 +3405,19 @@
         <v>364792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352522</v>
+        <v>350264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>375057</v>
+        <v>374542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9256147574848227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8944817646470427</v>
+        <v>0.888752298702121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9516599656213196</v>
+        <v>0.9503547634565103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -3439,19 +3439,19 @@
         <v>580280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>568678</v>
+        <v>566457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>590353</v>
+        <v>589645</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.951909457144017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.932876780275811</v>
+        <v>0.9292332531456184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9684332249668411</v>
+        <v>0.967272379386552</v>
       </c>
     </row>
     <row r="15">
@@ -3543,19 +3543,19 @@
         <v>8202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3184</v>
+        <v>3084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16733</v>
+        <v>16496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0353864867013806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01373496325655442</v>
+        <v>0.01330294387710864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07219214918751052</v>
+        <v>0.07116579270717141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5042</v>
+        <v>5512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009010979408059269</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04536136529125556</v>
+        <v>0.0495851800360207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3585,19 +3585,19 @@
         <v>9204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4634</v>
+        <v>4166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19254</v>
+        <v>18285</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02683767889002607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01351311150279439</v>
+        <v>0.01214763390121816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05614219137548054</v>
+        <v>0.05331640582492581</v>
       </c>
     </row>
     <row r="17">
@@ -3614,19 +3614,19 @@
         <v>223589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>215058</v>
+        <v>215295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>228607</v>
+        <v>228707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9646135132986194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9278078508124893</v>
+        <v>0.9288342072928286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9862650367434456</v>
+        <v>0.9866970561228914</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -3635,7 +3635,7 @@
         <v>110153</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106113</v>
+        <v>105643</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>111155</v>
@@ -3644,7 +3644,7 @@
         <v>0.9909890205919407</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9546386347087444</v>
+        <v>0.9504148199639791</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3656,19 +3656,19 @@
         <v>333742</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>323692</v>
+        <v>324661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>338312</v>
+        <v>338780</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9731623211099739</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9438578086245197</v>
+        <v>0.9466835941750745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9864868884972059</v>
+        <v>0.9878523660987818</v>
       </c>
     </row>
     <row r="18">
@@ -3760,19 +3760,19 @@
         <v>9941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4804</v>
+        <v>4159</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19734</v>
+        <v>19649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06482973203164107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03133321348069371</v>
+        <v>0.02712164065020889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1286978013847269</v>
+        <v>0.1281457122215034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>9941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4804</v>
+        <v>4034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19413</v>
+        <v>19194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04715296799682806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02278735190539165</v>
+        <v>0.01913534884046249</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0920830458295535</v>
+        <v>0.0910439994947068</v>
       </c>
     </row>
     <row r="20">
@@ -3823,19 +3823,19 @@
         <v>143393</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133600</v>
+        <v>133685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148530</v>
+        <v>149175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9351702679683589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8713021986152725</v>
+        <v>0.8718542877784977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9686667865193057</v>
+        <v>0.9728783593497914</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -3857,19 +3857,19 @@
         <v>200876</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>191404</v>
+        <v>191623</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206013</v>
+        <v>206783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9528470320031719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9079169541704475</v>
+        <v>0.9089560005052932</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9772126480946086</v>
+        <v>0.9808646511595375</v>
       </c>
     </row>
     <row r="21">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02681588388857092</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02086993741005003</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
     </row>
     <row r="23">
@@ -4024,7 +4024,7 @@
         <v>83238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74496</v>
+        <v>74115</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>85532</v>
@@ -4033,7 +4033,7 @@
         <v>0.9731841161114291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8709674866945248</v>
+        <v>0.8665186866374522</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>107606</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99103</v>
+        <v>98801</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>109900</v>
@@ -4067,7 +4067,7 @@
         <v>0.9791300625899499</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9017522016726462</v>
+        <v>0.8990125576002798</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4162,19 +4162,19 @@
         <v>137642</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06745123370676877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -4183,19 +4183,19 @@
         <v>22706</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02160813611628303</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -4204,19 +4204,19 @@
         <v>160348</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05186869192617114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
     </row>
     <row r="26">
@@ -4233,19 +4233,19 @@
         <v>1902977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1877380</v>
+        <v>1878197</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1925277</v>
+        <v>1924775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9325487662932312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.92000518104161</v>
+        <v>0.9204056380474875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9434769928447416</v>
+        <v>0.943230707259648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>945</v>
@@ -4254,19 +4254,19 @@
         <v>1028102</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1015420</v>
+        <v>1016159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1036582</v>
+        <v>1036816</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.978391863883717</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.966322772447796</v>
+        <v>0.9670259259298731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9864619590718343</v>
+        <v>0.9866840593189524</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2737</v>
@@ -4275,19 +4275,19 @@
         <v>2931079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2903338</v>
+        <v>2904470</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2957003</v>
+        <v>2955048</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9481313080738288</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9391580118091231</v>
+        <v>0.9395240415652952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9565171318484602</v>
+        <v>0.9558847144773296</v>
       </c>
     </row>
     <row r="27">
@@ -4622,19 +4622,19 @@
         <v>19091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11303</v>
+        <v>12083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30699</v>
+        <v>29716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07481674696095104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04429669122415913</v>
+        <v>0.0473536038599183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.120307198960887</v>
+        <v>0.1164539857383427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4643,19 +4643,19 @@
         <v>12140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6479</v>
+        <v>6825</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19817</v>
+        <v>21326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07074544461859786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03775591878009195</v>
+        <v>0.03977388224169034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1154882805835392</v>
+        <v>0.1242775780672301</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -4664,19 +4664,19 @@
         <v>31231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21158</v>
+        <v>21093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44910</v>
+        <v>43979</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07317974855211887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04957750171515736</v>
+        <v>0.04942520394943198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1052321729143439</v>
+        <v>0.103050551964683</v>
       </c>
     </row>
     <row r="5">
@@ -4693,19 +4693,19 @@
         <v>236081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224473</v>
+        <v>225456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243869</v>
+        <v>243089</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9251832530390489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8796928010391126</v>
+        <v>0.8835460142616567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9557033087758406</v>
+        <v>0.9526463961400815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -4714,19 +4714,19 @@
         <v>159456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151779</v>
+        <v>150270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165117</v>
+        <v>164771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9292545553814021</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8845117194164611</v>
+        <v>0.8757224219327696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9622440812199081</v>
+        <v>0.9602261177583096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -4735,19 +4735,19 @@
         <v>395537</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381858</v>
+        <v>382789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>405610</v>
+        <v>405675</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9268202514478812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8947678270856559</v>
+        <v>0.896949448035317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9504224982848426</v>
+        <v>0.9505747960505678</v>
       </c>
     </row>
     <row r="6">
@@ -4839,19 +4839,19 @@
         <v>25803</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17755</v>
+        <v>17126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38225</v>
+        <v>37951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07038640092350894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04843309109135071</v>
+        <v>0.04671606565288092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1042736076937003</v>
+        <v>0.103525551296933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4860,19 +4860,19 @@
         <v>8408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4567</v>
+        <v>3702</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16497</v>
+        <v>14963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03726917614538049</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0202434809376269</v>
+        <v>0.01640794790124906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07312620996487469</v>
+        <v>0.06632517091611047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -4881,19 +4881,19 @@
         <v>34210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24910</v>
+        <v>24071</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48564</v>
+        <v>45713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05777026529042922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04206472164025515</v>
+        <v>0.04064767260732769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08200799729486831</v>
+        <v>0.07719398969594954</v>
       </c>
     </row>
     <row r="8">
@@ -4910,19 +4910,19 @@
         <v>340784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328362</v>
+        <v>328636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>348832</v>
+        <v>349461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9296135990764911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8957263923063005</v>
+        <v>0.8964744487030674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9515669089086496</v>
+        <v>0.9532839343471191</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>221</v>
@@ -4931,19 +4931,19 @@
         <v>217186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209097</v>
+        <v>210631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221027</v>
+        <v>221892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9627308238546195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.926873790035126</v>
+        <v>0.9336748290838889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.979756519062373</v>
+        <v>0.9835920520987509</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>551</v>
@@ -4952,19 +4952,19 @@
         <v>557971</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>543617</v>
+        <v>546468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>567271</v>
+        <v>568110</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9422297347095708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9179920027051318</v>
+        <v>0.9228060103040505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.957935278359745</v>
+        <v>0.9593523273926725</v>
       </c>
     </row>
     <row r="9">
@@ -5056,19 +5056,19 @@
         <v>13747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7646</v>
+        <v>7237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24212</v>
+        <v>22949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03186936883217599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01772565901420147</v>
+        <v>0.01677707642815789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05612950580046818</v>
+        <v>0.05320162753577965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5077,19 +5077,19 @@
         <v>2741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>822</v>
+        <v>296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8625</v>
+        <v>7814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01100222595758775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003301760767817868</v>
+        <v>0.001187368012530502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03462333314812931</v>
+        <v>0.03136761154493964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5098,19 +5098,19 @@
         <v>16488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10151</v>
+        <v>10150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27363</v>
+        <v>26320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02423034275207078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01491748164878775</v>
+        <v>0.01491586948481336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04021216117362632</v>
+        <v>0.03868006541706548</v>
       </c>
     </row>
     <row r="11">
@@ -5127,19 +5127,19 @@
         <v>417607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>407142</v>
+        <v>408405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>423708</v>
+        <v>424117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9681306311678241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438704941995316</v>
+        <v>0.9467983724642204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9822743409857985</v>
+        <v>0.983222923571842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -5148,19 +5148,19 @@
         <v>246359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240475</v>
+        <v>241286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248278</v>
+        <v>248804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9889977740424123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9653766668518713</v>
+        <v>0.9686323884550605</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966982392321821</v>
+        <v>0.9988126319874696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -5169,19 +5169,19 @@
         <v>663966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653091</v>
+        <v>654134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670303</v>
+        <v>670304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9757696572479292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9597878388263738</v>
+        <v>0.9613199345829345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9850825183512123</v>
+        <v>0.9850841305151866</v>
       </c>
     </row>
     <row r="12">
@@ -5273,19 +5273,19 @@
         <v>25627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16430</v>
+        <v>16577</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36861</v>
+        <v>37146</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06559975034882218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04205765007839876</v>
+        <v>0.04243294805821653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09435552972168247</v>
+        <v>0.09508459984914697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5294,19 +5294,19 @@
         <v>8766</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4270</v>
+        <v>4337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16667</v>
+        <v>16557</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0330540731126194</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01610112616659209</v>
+        <v>0.01635336412222498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06284436461192014</v>
+        <v>0.06242863502647358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -5315,19 +5315,19 @@
         <v>34394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24804</v>
+        <v>24113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47545</v>
+        <v>47603</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05243951095884325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0378183136397798</v>
+        <v>0.03676429612450248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07249167771441127</v>
+        <v>0.07257977302880136</v>
       </c>
     </row>
     <row r="14">
@@ -5344,19 +5344,19 @@
         <v>365035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353801</v>
+        <v>353516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374232</v>
+        <v>374085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9344002496511778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9056444702783176</v>
+        <v>0.904915400150853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9579423499216014</v>
+        <v>0.9575670519417838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -5365,19 +5365,19 @@
         <v>256444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>248543</v>
+        <v>248653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260940</v>
+        <v>260873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9669459268873806</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9371556353880799</v>
+        <v>0.9375713649735262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.983898873833408</v>
+        <v>0.983646635877775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>563</v>
@@ -5386,19 +5386,19 @@
         <v>621478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>608327</v>
+        <v>608269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>631068</v>
+        <v>631759</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9475604890411568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9275083222855887</v>
+        <v>0.9274202269711985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9621816863602202</v>
+        <v>0.9632357038754974</v>
       </c>
     </row>
     <row r="15">
@@ -5490,19 +5490,19 @@
         <v>16440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10017</v>
+        <v>9456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26968</v>
+        <v>26137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0575723887826019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03508002621523196</v>
+        <v>0.03311654252799474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09444322804444011</v>
+        <v>0.09153355236066849</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5511,19 +5511,19 @@
         <v>4172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10951</v>
+        <v>11715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03193932136728444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008565632160561604</v>
+        <v>0.008571445806579573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08383453418238816</v>
+        <v>0.08968078659880339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5532,19 +5532,19 @@
         <v>20612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12608</v>
+        <v>12267</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32126</v>
+        <v>31578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04952662809156771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03029383549469939</v>
+        <v>0.02947506719141167</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07719227359300768</v>
+        <v>0.07587539294678845</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>269107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258579</v>
+        <v>259410</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275530</v>
+        <v>276091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9424276112173982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9055567719555598</v>
+        <v>0.9084664476393315</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.964919973784768</v>
+        <v>0.9668834574720048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -5582,19 +5582,19 @@
         <v>126459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119680</v>
+        <v>118916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129512</v>
+        <v>129511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9680606786327156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9161654658176118</v>
+        <v>0.9103192134011966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9914343678394384</v>
+        <v>0.9914285541934205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>349</v>
@@ -5603,19 +5603,19 @@
         <v>395565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384051</v>
+        <v>384599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403569</v>
+        <v>403910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9504733719084323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.922807726406992</v>
+        <v>0.9241246070532115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9697061645053004</v>
+        <v>0.9705249328085882</v>
       </c>
     </row>
     <row r="18">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7156</v>
+        <v>6907</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01160420136760041</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0407803751113453</v>
+        <v>0.03936070489998569</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4559</v>
+        <v>5637</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01588174247709008</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06743411067752865</v>
+        <v>0.08338072691353131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -5749,19 +5749,19 @@
         <v>3110</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9384</v>
+        <v>8923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01279377519613343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00386992514648787</v>
+        <v>0.00397333004775175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03860186281939783</v>
+        <v>0.03670659348911345</v>
       </c>
     </row>
     <row r="20">
@@ -5778,7 +5778,7 @@
         <v>173451</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168331</v>
+        <v>168580</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>175487</v>
@@ -5787,7 +5787,7 @@
         <v>0.9883957986323996</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9592196248886544</v>
+        <v>0.9606392951000142</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>66529</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63044</v>
+        <v>61966</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>67603</v>
@@ -5808,7 +5808,7 @@
         <v>0.9841182575229099</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9325658893224718</v>
+        <v>0.9166192730864686</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -5820,19 +5820,19 @@
         <v>239980</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233706</v>
+        <v>234167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242149</v>
+        <v>242124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9872062248038665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9613981371806022</v>
+        <v>0.9632934065108866</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9961300748535121</v>
+        <v>0.9960266699522482</v>
       </c>
     </row>
     <row r="21">
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8766</v>
+        <v>7755</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02542556980093083</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0918563847515206</v>
+        <v>0.08126347556854609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7807</v>
+        <v>8086</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0183807203224408</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05914008947222067</v>
+        <v>0.06125892551611732</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>93001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86661</v>
+        <v>87672</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>95427</v>
@@ -5996,7 +5996,7 @@
         <v>0.9745744301990692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9081436152484815</v>
+        <v>0.9187365244314538</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>129575</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>124194</v>
+        <v>123915</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>132001</v>
@@ -6030,7 +6030,7 @@
         <v>0.9816192796775592</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9408599105277794</v>
+        <v>0.9387410744838827</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -6125,19 +6125,19 @@
         <v>105170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05257904566661846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -6146,19 +6146,19 @@
         <v>37300</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03253938658472359</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>130</v>
@@ -6167,19 +6167,19 @@
         <v>142471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04527846141214422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
     </row>
     <row r="26">
@@ -6196,19 +6196,19 @@
         <v>1895066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1871806</v>
+        <v>1872429</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1914336</v>
+        <v>1914728</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9474209543333816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9357924074784939</v>
+        <v>0.9361040902891878</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9570549597978587</v>
+        <v>0.957251008378975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1059</v>
@@ -6217,19 +6217,19 @@
         <v>1109007</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1094144</v>
+        <v>1094893</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1118898</v>
+        <v>1120409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9674606134152764</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.954494437093619</v>
+        <v>0.9551482128903016</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9760896124226704</v>
+        <v>0.9774074193870322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2857</v>
@@ -6238,19 +6238,19 @@
         <v>3004072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2977016</v>
+        <v>2978599</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3025657</v>
+        <v>3025955</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9547215385878558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9461227267863946</v>
+        <v>0.9466259930397465</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9615814130534814</v>
+        <v>0.9616761589583179</v>
       </c>
     </row>
     <row r="27">
@@ -6585,19 +6585,19 @@
         <v>13348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5164</v>
+        <v>4986</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30539</v>
+        <v>28482</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08029123470575796</v>
+        <v>0.08029123470575794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03106067269529047</v>
+        <v>0.0299916224740355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1837016644090081</v>
+        <v>0.1713256013751685</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6606,19 +6606,19 @@
         <v>9549</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3495</v>
+        <v>3303</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19299</v>
+        <v>19461</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08461921304629691</v>
+        <v>0.0846192130462969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03097581526114532</v>
+        <v>0.02926947735623788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1710291094988248</v>
+        <v>0.1724632039058874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6627,19 +6627,19 @@
         <v>22896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12369</v>
+        <v>11248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42182</v>
+        <v>41797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08204114650960666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04431964940449632</v>
+        <v>0.04030189277292219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1511459859322725</v>
+        <v>0.1497652147174624</v>
       </c>
     </row>
     <row r="5">
@@ -6656,19 +6656,19 @@
         <v>152895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135704</v>
+        <v>137761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161079</v>
+        <v>161257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9197087652942421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.816298335590992</v>
+        <v>0.8286743986248317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9689393273047097</v>
+        <v>0.9700083775259645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -6677,19 +6677,19 @@
         <v>103292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93542</v>
+        <v>93380</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109346</v>
+        <v>109538</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9153807869537031</v>
+        <v>0.9153807869537033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8289708905011755</v>
+        <v>0.8275367960941127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9690241847388548</v>
+        <v>0.9707305226437623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -6698,19 +6698,19 @@
         <v>256188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>236902</v>
+        <v>237287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266715</v>
+        <v>267836</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9179588534903933</v>
+        <v>0.9179588534903934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8488540140677274</v>
+        <v>0.8502347852825377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.955680350595503</v>
+        <v>0.9596981072270779</v>
       </c>
     </row>
     <row r="6">
@@ -6802,19 +6802,19 @@
         <v>18256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9550</v>
+        <v>10326</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32453</v>
+        <v>31599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07317997314967831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03828119360307901</v>
+        <v>0.04139354741189455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1300891264772351</v>
+        <v>0.1266686983761273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6823,19 +6823,19 @@
         <v>5367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1604</v>
+        <v>1458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12769</v>
+        <v>12420</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0350790318765932</v>
+        <v>0.03507903187659319</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01048449769544622</v>
+        <v>0.009532745981021974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08346212019578778</v>
+        <v>0.08117954489419293</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -6844,19 +6844,19 @@
         <v>23623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13557</v>
+        <v>13399</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36622</v>
+        <v>37492</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05869611352212153</v>
+        <v>0.05869611352212152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03368696805451305</v>
+        <v>0.03329337713990776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09099609970358473</v>
+        <v>0.09315837091874565</v>
       </c>
     </row>
     <row r="8">
@@ -6873,19 +6873,19 @@
         <v>231208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217011</v>
+        <v>217865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239914</v>
+        <v>239138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9268200268503218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8699108735227645</v>
+        <v>0.8733313016238718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9617188063969209</v>
+        <v>0.9586064525881051</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -6894,19 +6894,19 @@
         <v>147624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>140222</v>
+        <v>140571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>151387</v>
+        <v>151533</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9649209681234068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9165378798042124</v>
+        <v>0.9188204551058081</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9895155023045537</v>
+        <v>0.9904672540189782</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>280</v>
@@ -6915,19 +6915,19 @@
         <v>378832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>365833</v>
+        <v>364963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>388898</v>
+        <v>389056</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9413038864778787</v>
+        <v>0.9413038864778784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9090039002964148</v>
+        <v>0.9068416290812542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9663130319454865</v>
+        <v>0.966706622860092</v>
       </c>
     </row>
     <row r="9">
@@ -7019,19 +7019,19 @@
         <v>22005</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13740</v>
+        <v>13739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32276</v>
+        <v>33450</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07035360419594282</v>
+        <v>0.0703536041959428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04392657625194007</v>
+        <v>0.04392365653038866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1031909664786274</v>
+        <v>0.1069438361942994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -7040,19 +7040,19 @@
         <v>3604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1286</v>
+        <v>1195</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8562</v>
+        <v>7884</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02120793875412697</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007569403631142553</v>
+        <v>0.007032258381045754</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05038109576846424</v>
+        <v>0.04639291425786161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -7061,19 +7061,19 @@
         <v>25609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17324</v>
+        <v>16656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37412</v>
+        <v>37640</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05305243504596232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03588928560402026</v>
+        <v>0.03450393276270594</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07750223874351624</v>
+        <v>0.07797506367726015</v>
       </c>
     </row>
     <row r="11">
@@ -7090,19 +7090,19 @@
         <v>290779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280508</v>
+        <v>279334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299044</v>
+        <v>299045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9296463958040573</v>
+        <v>0.9296463958040571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8968090335213723</v>
+        <v>0.8930561638057003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9560734237480599</v>
+        <v>0.9560763434696115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -7111,19 +7111,19 @@
         <v>166332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161374</v>
+        <v>162052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168650</v>
+        <v>168741</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.978792061245873</v>
+        <v>0.9787920612458731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9496189042315355</v>
+        <v>0.9536070857421379</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924305963688574</v>
+        <v>0.9929677416189543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>475</v>
@@ -7132,19 +7132,19 @@
         <v>457111</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>445308</v>
+        <v>445080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>465396</v>
+        <v>466064</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9469475649540378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9224977612564838</v>
+        <v>0.9220249363227396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9641107143959795</v>
+        <v>0.965496067237294</v>
       </c>
     </row>
     <row r="12">
@@ -7236,19 +7236,19 @@
         <v>16092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9287</v>
+        <v>9071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25645</v>
+        <v>24758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04548853897922865</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02625185986677453</v>
+        <v>0.0256416037313658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0724932739141278</v>
+        <v>0.06998680207403855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7257,19 +7257,19 @@
         <v>4843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2107</v>
+        <v>2053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9651</v>
+        <v>9159</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02284382192475851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009936387694683597</v>
+        <v>0.009686041558850896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04552254823976683</v>
+        <v>0.04320312033543194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -7278,19 +7278,19 @@
         <v>20935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14041</v>
+        <v>13695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31194</v>
+        <v>30077</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03700310137153383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02481790608131925</v>
+        <v>0.02420663245614248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05513695431212821</v>
+        <v>0.05316345887530961</v>
       </c>
     </row>
     <row r="14">
@@ -7307,19 +7307,19 @@
         <v>337663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328110</v>
+        <v>328997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344468</v>
+        <v>344684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9545114610207713</v>
+        <v>0.9545114610207716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9275067260858718</v>
+        <v>0.9300131979259612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9737481401332255</v>
+        <v>0.9743583962686343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -7328,19 +7328,19 @@
         <v>207157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202349</v>
+        <v>202841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209893</v>
+        <v>209947</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9771561780752415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9544774517602332</v>
+        <v>0.9567968796645682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9900636123053164</v>
+        <v>0.9903139584411491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>634</v>
@@ -7349,19 +7349,19 @@
         <v>544819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>534560</v>
+        <v>535677</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551713</v>
+        <v>552059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9629968986284662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448630456878718</v>
+        <v>0.9468365411246905</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.975182093918681</v>
+        <v>0.9757933675438575</v>
       </c>
     </row>
     <row r="15">
@@ -7453,19 +7453,19 @@
         <v>24866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17116</v>
+        <v>17212</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35139</v>
+        <v>35605</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08860330312806888</v>
+        <v>0.0886033031280689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06098891934577266</v>
+        <v>0.06132980367221566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1252073538072112</v>
+        <v>0.1268691863380465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7474,19 +7474,19 @@
         <v>5082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2425</v>
+        <v>2465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10079</v>
+        <v>9425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03434857604355215</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01639109116078544</v>
+        <v>0.01665874562645601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06812249447315094</v>
+        <v>0.06369891023627733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -7495,19 +7495,19 @@
         <v>29948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20590</v>
+        <v>21234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41144</v>
+        <v>40587</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06987415122250068</v>
+        <v>0.06987415122250069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04803857591846752</v>
+        <v>0.04954316432276479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09599452055670551</v>
+        <v>0.09469455483828079</v>
       </c>
     </row>
     <row r="17">
@@ -7524,19 +7524,19 @@
         <v>255781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>245508</v>
+        <v>245042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>263531</v>
+        <v>263435</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.911396696871931</v>
+        <v>0.9113966968719311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8747926461927886</v>
+        <v>0.8731308136619534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9390110806542272</v>
+        <v>0.9386701963277844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>232</v>
@@ -7545,19 +7545,19 @@
         <v>142876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137879</v>
+        <v>138533</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145533</v>
+        <v>145493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9656514239564478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9318775055268491</v>
+        <v>0.9363010897637228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9836089088392144</v>
+        <v>0.9833412543735437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>509</v>
@@ -7566,19 +7566,19 @@
         <v>398657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>387461</v>
+        <v>388018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408015</v>
+        <v>407371</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9301258487774994</v>
+        <v>0.9301258487774995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9040054794432945</v>
+        <v>0.9053054451617191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9519614240815324</v>
+        <v>0.9504568356772352</v>
       </c>
     </row>
     <row r="18">
@@ -7670,19 +7670,19 @@
         <v>13265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8284</v>
+        <v>7782</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20404</v>
+        <v>20546</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06381118189987139</v>
+        <v>0.06381118189987141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03984928132953074</v>
+        <v>0.03743498759099927</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09815605364363943</v>
+        <v>0.09883973239533182</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -7691,19 +7691,19 @@
         <v>1695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4654</v>
+        <v>4906</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02131361514809176</v>
+        <v>0.02131361514809177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005727062611479078</v>
+        <v>0.005752047243570012</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05853723504832224</v>
+        <v>0.06170090622547723</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -7712,19 +7712,19 @@
         <v>14959</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9195</v>
+        <v>9349</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22298</v>
+        <v>21861</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05205392306909164</v>
+        <v>0.05205392306909163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03199705882856887</v>
+        <v>0.03253229360267336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07759040007162284</v>
+        <v>0.07606880158482719</v>
       </c>
     </row>
     <row r="20">
@@ -7741,19 +7741,19 @@
         <v>194611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187472</v>
+        <v>187330</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199592</v>
+        <v>200094</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9361888181001287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9018439463563606</v>
+        <v>0.9011602676046683</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9601507186704692</v>
+        <v>0.9625650124090008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -7762,19 +7762,19 @@
         <v>77811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74852</v>
+        <v>74600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79051</v>
+        <v>79049</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9786863848519083</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9414627649516762</v>
+        <v>0.9382990937745228</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.994272937388521</v>
+        <v>0.99424795275643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>417</v>
@@ -7783,19 +7783,19 @@
         <v>272423</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265084</v>
+        <v>265521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>278187</v>
+        <v>278033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9479460769309084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9224095999283769</v>
+        <v>0.9239311984151727</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.968002941171431</v>
+        <v>0.9674677063973265</v>
       </c>
     </row>
     <row r="21">
@@ -7890,16 +7890,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5444</v>
+        <v>4350</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01233467254317186</v>
+        <v>0.01233467254317187</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04961167776944239</v>
+        <v>0.0396347849560575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4517</v>
+        <v>3985</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03598841319354957</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1466620122532964</v>
+        <v>0.1293981030407621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -7929,19 +7929,19 @@
         <v>2462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6692</v>
+        <v>6456</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01751812742276374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004058245418498636</v>
+        <v>0.004865819291775351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04762007851338072</v>
+        <v>0.04593858503473448</v>
       </c>
     </row>
     <row r="23">
@@ -7958,16 +7958,16 @@
         <v>108387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104297</v>
+        <v>105391</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>109741</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9876653274568281</v>
+        <v>0.987665327456828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9503883222305575</v>
+        <v>0.9603652150439422</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -7979,7 +7979,7 @@
         <v>29689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26280</v>
+        <v>26812</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30797</v>
@@ -7988,7 +7988,7 @@
         <v>0.9640115868064505</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8533379877467036</v>
+        <v>0.8706018969592333</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -8000,19 +8000,19 @@
         <v>138076</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133846</v>
+        <v>134082</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139968</v>
+        <v>139854</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9824818725772362</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9523799214866189</v>
+        <v>0.9540614149652656</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9959417545815014</v>
+        <v>0.9951341807082246</v>
       </c>
     </row>
     <row r="24">
@@ -8104,19 +8104,19 @@
         <v>109186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -8125,19 +8125,19 @@
         <v>31247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03448807986340396</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>134</v>
@@ -8146,19 +8146,19 @@
         <v>140433</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05429371167008844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="26">
@@ -8175,19 +8175,19 @@
         <v>1571323</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1547114</v>
+        <v>1547272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1592612</v>
+        <v>1591128</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9350282913773548</v>
+        <v>0.9350282913773549</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9206220035526748</v>
+        <v>0.920716166363574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.947696262494595</v>
+        <v>0.9468132363082913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1170</v>
@@ -8196,19 +8196,19 @@
         <v>874782</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>858179</v>
+        <v>860839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>884018</v>
+        <v>884925</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9655119201365961</v>
+        <v>0.965511920136596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9471873090376898</v>
+        <v>0.9501225777169096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9757059868660051</v>
+        <v>0.9767069219130858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2657</v>
@@ -8217,19 +8217,19 @@
         <v>2446105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2417168</v>
+        <v>2418905</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2468277</v>
+        <v>2472350</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9457062883299117</v>
+        <v>0.9457062883299114</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9345184817638533</v>
+        <v>0.9351900971154031</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9542780801567652</v>
+        <v>0.9558530446916664</v>
       </c>
     </row>
     <row r="27">
